--- a/players_stats/Danny Green.xlsx
+++ b/players_stats/Danny Green.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ16"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,7 +552,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1979-80</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -560,7 +560,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -570,90 +570,92 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>82</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="n">
-        <v>2791</v>
+        <v>115</v>
       </c>
       <c r="K2" t="n">
-        <v>498</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
-        <v>1051</v>
+        <v>39</v>
       </c>
       <c r="M2" t="n">
-        <v>0.474</v>
+        <v>0.385</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="P2" t="n">
-        <v>0.143</v>
+        <v>0.273</v>
       </c>
       <c r="Q2" t="n">
-        <v>497</v>
+        <v>9</v>
       </c>
       <c r="R2" t="n">
-        <v>1044</v>
+        <v>17</v>
       </c>
       <c r="S2" t="n">
-        <v>0.476</v>
+        <v>0.529</v>
       </c>
       <c r="T2" t="n">
-        <v>0.474</v>
+        <v>0.462</v>
       </c>
       <c r="U2" t="n">
-        <v>337</v>
+        <v>4</v>
       </c>
       <c r="V2" t="n">
-        <v>416</v>
+        <v>6</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.667</v>
       </c>
       <c r="X2" t="n">
-        <v>223</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
-        <v>550</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>773</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
-        <v>182</v>
+        <v>5</v>
       </c>
       <c r="AB2" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="AC2" t="n">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="AD2" t="n">
-        <v>210</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
-        <v>313</v>
+        <v>9</v>
       </c>
       <c r="AF2" t="n">
-        <v>1334</v>
+        <v>40</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 206</t>
+          <t xml:space="preserve"> 198</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100 </t>
+          <t xml:space="preserve"> 97 </t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -662,7 +664,7 @@
         </is>
       </c>
       <c r="AJ2" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -674,7 +676,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1980-81</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -682,7 +684,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -692,90 +694,90 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>82</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
       <c r="J3" t="n">
-        <v>2710</v>
+        <v>92</v>
       </c>
       <c r="K3" t="n">
-        <v>481</v>
+        <v>17</v>
       </c>
       <c r="L3" t="n">
-        <v>989</v>
+        <v>35</v>
       </c>
       <c r="M3" t="n">
         <v>0.486</v>
       </c>
       <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>19</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R3" t="n">
+        <v>16</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="U3" t="n">
         <v>0</v>
       </c>
-      <c r="O3" t="n">
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA3" t="n">
         <v>2</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>481</v>
-      </c>
-      <c r="R3" t="n">
-        <v>987</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.486</v>
-      </c>
-      <c r="U3" t="n">
-        <v>217</v>
-      </c>
-      <c r="V3" t="n">
-        <v>290</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.748</v>
-      </c>
-      <c r="X3" t="n">
-        <v>243</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>481</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>724</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>218</v>
-      </c>
       <c r="AB3" t="n">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="AC3" t="n">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="AD3" t="n">
-        <v>192</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="n">
-        <v>282</v>
+        <v>7</v>
       </c>
       <c r="AF3" t="n">
-        <v>1179</v>
+        <v>41</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 206</t>
+          <t xml:space="preserve"> 198</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100 </t>
+          <t xml:space="preserve"> 97 </t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -784,7 +786,7 @@
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -796,7 +798,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1981-82</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -804,7 +806,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -814,92 +816,92 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="I4" t="n">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="J4" t="n">
-        <v>2914</v>
+        <v>1522</v>
       </c>
       <c r="K4" t="n">
-        <v>480</v>
+        <v>211</v>
       </c>
       <c r="L4" t="n">
-        <v>1014</v>
+        <v>477</v>
       </c>
       <c r="M4" t="n">
-        <v>0.473</v>
+        <v>0.442</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>234</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.436</v>
       </c>
       <c r="Q4" t="n">
-        <v>480</v>
+        <v>109</v>
       </c>
       <c r="R4" t="n">
-        <v>1011</v>
+        <v>243</v>
       </c>
       <c r="S4" t="n">
-        <v>0.475</v>
+        <v>0.449</v>
       </c>
       <c r="T4" t="n">
-        <v>0.473</v>
+        <v>0.5489999999999999</v>
       </c>
       <c r="U4" t="n">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="V4" t="n">
-        <v>291</v>
+        <v>100</v>
       </c>
       <c r="W4" t="n">
-        <v>0.825</v>
+        <v>0.79</v>
       </c>
       <c r="X4" t="n">
-        <v>192</v>
+        <v>54</v>
       </c>
       <c r="Y4" t="n">
-        <v>594</v>
+        <v>174</v>
       </c>
       <c r="Z4" t="n">
-        <v>786</v>
+        <v>228</v>
       </c>
       <c r="AA4" t="n">
-        <v>262</v>
+        <v>86</v>
       </c>
       <c r="AB4" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="AC4" t="n">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="AD4" t="n">
-        <v>180</v>
+        <v>67</v>
       </c>
       <c r="AE4" t="n">
-        <v>292</v>
+        <v>107</v>
       </c>
       <c r="AF4" t="n">
-        <v>1200</v>
+        <v>603</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 206</t>
+          <t xml:space="preserve"> 198</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100 </t>
+          <t xml:space="preserve"> 97 </t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -908,7 +910,7 @@
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -920,7 +922,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1982-83</t>
+          <t>2012-13</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -928,7 +930,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -938,92 +940,92 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>80</v>
+      </c>
+      <c r="I5" t="n">
+        <v>80</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2201</v>
+      </c>
+      <c r="K5" t="n">
+        <v>297</v>
+      </c>
+      <c r="L5" t="n">
+        <v>663</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="N5" t="n">
+        <v>177</v>
+      </c>
+      <c r="O5" t="n">
+        <v>413</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>120</v>
+      </c>
+      <c r="R5" t="n">
+        <v>250</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="U5" t="n">
+        <v>67</v>
+      </c>
+      <c r="V5" t="n">
         <v>79</v>
       </c>
-      <c r="I5" t="n">
-        <v>61</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2355</v>
-      </c>
-      <c r="K5" t="n">
-        <v>312</v>
-      </c>
-      <c r="L5" t="n">
-        <v>686</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>312</v>
-      </c>
-      <c r="R5" t="n">
-        <v>682</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.457</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="U5" t="n">
-        <v>165</v>
-      </c>
-      <c r="V5" t="n">
-        <v>233</v>
-      </c>
       <c r="W5" t="n">
-        <v>0.708</v>
+        <v>0.848</v>
       </c>
       <c r="X5" t="n">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="Y5" t="n">
-        <v>548</v>
+        <v>208</v>
       </c>
       <c r="Z5" t="n">
-        <v>765</v>
+        <v>244</v>
       </c>
       <c r="AA5" t="n">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="AB5" t="n">
+        <v>92</v>
+      </c>
+      <c r="AC5" t="n">
         <v>54</v>
       </c>
-      <c r="AC5" t="n">
-        <v>90</v>
-      </c>
       <c r="AD5" t="n">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="AE5" t="n">
-        <v>261</v>
+        <v>124</v>
       </c>
       <c r="AF5" t="n">
-        <v>789</v>
+        <v>838</v>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 206</t>
+          <t xml:space="preserve"> 198</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100 </t>
+          <t xml:space="preserve"> 97 </t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1032,7 +1034,7 @@
         </is>
       </c>
       <c r="AJ5" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -1044,7 +1046,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1983-84</t>
+          <t>2013-14</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -1052,7 +1054,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1062,92 +1064,92 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="I6" t="n">
+        <v>59</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1651</v>
+      </c>
+      <c r="K6" t="n">
+        <v>218</v>
+      </c>
+      <c r="L6" t="n">
+        <v>505</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.4320000000000001</v>
+      </c>
+      <c r="N6" t="n">
+        <v>132</v>
+      </c>
+      <c r="O6" t="n">
+        <v>318</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>86</v>
+      </c>
+      <c r="R6" t="n">
+        <v>187</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="U6" t="n">
+        <v>50</v>
+      </c>
+      <c r="V6" t="n">
+        <v>63</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="X6" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>204</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>229</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>104</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>61</v>
+      </c>
+      <c r="AD6" t="n">
         <v>76</v>
       </c>
-      <c r="J6" t="n">
-        <v>2718</v>
-      </c>
-      <c r="K6" t="n">
-        <v>369</v>
-      </c>
-      <c r="L6" t="n">
-        <v>753</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>369</v>
-      </c>
-      <c r="R6" t="n">
-        <v>752</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.491</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="U6" t="n">
-        <v>213</v>
-      </c>
-      <c r="V6" t="n">
-        <v>289</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.737</v>
-      </c>
-      <c r="X6" t="n">
-        <v>214</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>572</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>786</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>139</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>72</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>149</v>
-      </c>
       <c r="AE6" t="n">
-        <v>265</v>
+        <v>107</v>
       </c>
       <c r="AF6" t="n">
-        <v>951</v>
+        <v>618</v>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 206</t>
+          <t xml:space="preserve"> 198</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100 </t>
+          <t xml:space="preserve"> 97 </t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1156,7 +1158,7 @@
         </is>
       </c>
       <c r="AJ6" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -1168,7 +1170,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1984-85</t>
+          <t>2014-15</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -1176,7 +1178,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1186,92 +1188,92 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="I7" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="J7" t="n">
-        <v>1523</v>
+        <v>2312</v>
       </c>
       <c r="K7" t="n">
-        <v>152</v>
+        <v>322</v>
       </c>
       <c r="L7" t="n">
-        <v>332</v>
+        <v>738</v>
       </c>
       <c r="M7" t="n">
-        <v>0.458</v>
+        <v>0.436</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>457</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.418</v>
       </c>
       <c r="Q7" t="n">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="R7" t="n">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="S7" t="n">
-        <v>0.459</v>
+        <v>0.466</v>
       </c>
       <c r="T7" t="n">
-        <v>0.458</v>
+        <v>0.5660000000000001</v>
       </c>
       <c r="U7" t="n">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="V7" t="n">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="W7" t="n">
-        <v>0.713</v>
+        <v>0.8740000000000001</v>
       </c>
       <c r="X7" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="Y7" t="n">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="Z7" t="n">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="AA7" t="n">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="AC7" t="n">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="AD7" t="n">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="AE7" t="n">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="AF7" t="n">
-        <v>371</v>
+        <v>946</v>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 206</t>
+          <t xml:space="preserve"> 198</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100 </t>
+          <t xml:space="preserve"> 97 </t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1280,7 +1282,7 @@
         </is>
       </c>
       <c r="AJ7" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
@@ -1292,7 +1294,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1985-86</t>
+          <t>2015-16</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -1310,92 +1312,92 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="I8" t="n">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="J8" t="n">
-        <v>1910</v>
+        <v>2062</v>
       </c>
       <c r="K8" t="n">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="L8" t="n">
-        <v>388</v>
+        <v>561</v>
       </c>
       <c r="M8" t="n">
-        <v>0.51</v>
+        <v>0.376</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>349</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.332</v>
       </c>
       <c r="Q8" t="n">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="R8" t="n">
-        <v>387</v>
+        <v>212</v>
       </c>
       <c r="S8" t="n">
-        <v>0.512</v>
+        <v>0.448</v>
       </c>
       <c r="T8" t="n">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="U8" t="n">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="V8" t="n">
-        <v>184</v>
+        <v>46</v>
       </c>
       <c r="W8" t="n">
-        <v>0.772</v>
+        <v>0.7390000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="Y8" t="n">
-        <v>380</v>
+        <v>255</v>
       </c>
       <c r="Z8" t="n">
-        <v>531</v>
+        <v>303</v>
       </c>
       <c r="AA8" t="n">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="AB8" t="n">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC8" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="AD8" t="n">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="n">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="AF8" t="n">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 206</t>
+          <t xml:space="preserve"> 198</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100 </t>
+          <t xml:space="preserve"> 97 </t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1404,7 +1406,7 @@
         </is>
       </c>
       <c r="AJ8" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -1416,7 +1418,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1986-87</t>
+          <t>2016-17</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1434,92 +1436,92 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="I9" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="J9" t="n">
-        <v>2587</v>
+        <v>1807</v>
       </c>
       <c r="K9" t="n">
-        <v>336</v>
+        <v>176</v>
       </c>
       <c r="L9" t="n">
-        <v>655</v>
+        <v>449</v>
       </c>
       <c r="M9" t="n">
-        <v>0.513</v>
+        <v>0.392</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="O9" t="n">
-        <v>6</v>
+        <v>311</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5</v>
+        <v>0.379</v>
       </c>
       <c r="Q9" t="n">
-        <v>333</v>
+        <v>58</v>
       </c>
       <c r="R9" t="n">
-        <v>649</v>
+        <v>138</v>
       </c>
       <c r="S9" t="n">
-        <v>0.513</v>
+        <v>0.42</v>
       </c>
       <c r="T9" t="n">
-        <v>0.515</v>
+        <v>0.523</v>
       </c>
       <c r="U9" t="n">
-        <v>241</v>
+        <v>27</v>
       </c>
       <c r="V9" t="n">
-        <v>307</v>
+        <v>32</v>
       </c>
       <c r="W9" t="n">
-        <v>0.785</v>
+        <v>0.8440000000000001</v>
       </c>
       <c r="X9" t="n">
-        <v>256</v>
+        <v>31</v>
       </c>
       <c r="Y9" t="n">
-        <v>527</v>
+        <v>193</v>
       </c>
       <c r="Z9" t="n">
-        <v>783</v>
+        <v>224</v>
       </c>
       <c r="AA9" t="n">
-        <v>237</v>
+        <v>124</v>
       </c>
       <c r="AB9" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC9" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="AD9" t="n">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="n">
-        <v>248</v>
+        <v>120</v>
       </c>
       <c r="AF9" t="n">
-        <v>916</v>
+        <v>497</v>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 206</t>
+          <t xml:space="preserve"> 198</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100 </t>
+          <t xml:space="preserve"> 97 </t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -1528,7 +1530,7 @@
         </is>
       </c>
       <c r="AJ9" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -1540,7 +1542,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1987-88</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1558,92 +1560,92 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="I10" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J10" t="n">
-        <v>1236</v>
+        <v>1791</v>
       </c>
       <c r="K10" t="n">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="L10" t="n">
-        <v>328</v>
+        <v>561</v>
       </c>
       <c r="M10" t="n">
-        <v>0.46</v>
+        <v>0.387</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>320</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.363</v>
       </c>
       <c r="Q10" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="R10" t="n">
-        <v>326</v>
+        <v>241</v>
       </c>
       <c r="S10" t="n">
-        <v>0.463</v>
+        <v>0.419</v>
       </c>
       <c r="T10" t="n">
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
       <c r="U10" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="V10" t="n">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="W10" t="n">
-        <v>0.748</v>
+        <v>0.769</v>
       </c>
       <c r="X10" t="n">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="Y10" t="n">
         <v>208</v>
       </c>
       <c r="Z10" t="n">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="AA10" t="n">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="AB10" t="n">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="AC10" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="AD10" t="n">
         <v>74</v>
       </c>
       <c r="AE10" t="n">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="AF10" t="n">
-        <v>385</v>
+        <v>600</v>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 206</t>
+          <t xml:space="preserve"> 198</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100 </t>
+          <t xml:space="preserve"> 97 </t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
@@ -1652,7 +1654,7 @@
         </is>
       </c>
       <c r="AJ10" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
@@ -1664,7 +1666,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1988-89</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1672,7 +1674,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TOT</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1682,90 +1684,92 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I11" t="n">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="J11" t="n">
-        <v>1403</v>
+        <v>2216</v>
       </c>
       <c r="K11" t="n">
-        <v>167</v>
+        <v>293</v>
       </c>
       <c r="L11" t="n">
-        <v>395</v>
+        <v>630</v>
       </c>
       <c r="M11" t="n">
-        <v>0.423</v>
+        <v>0.465</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="inlineStr"/>
+        <v>435</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.455</v>
+      </c>
       <c r="Q11" t="n">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="R11" t="n">
-        <v>395</v>
+        <v>195</v>
       </c>
       <c r="S11" t="n">
-        <v>0.423</v>
+        <v>0.487</v>
       </c>
       <c r="T11" t="n">
-        <v>0.423</v>
+        <v>0.622</v>
       </c>
       <c r="U11" t="n">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="V11" t="n">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="W11" t="n">
-        <v>0.75</v>
+        <v>0.841</v>
       </c>
       <c r="X11" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="Y11" t="n">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="Z11" t="n">
-        <v>402</v>
+        <v>317</v>
       </c>
       <c r="AA11" t="n">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="AB11" t="n">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="AC11" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AD11" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="AE11" t="n">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="AF11" t="n">
-        <v>466</v>
+        <v>821</v>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 206</t>
+          <t xml:space="preserve"> 198</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100 </t>
+          <t xml:space="preserve"> 97 </t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
@@ -1774,7 +1778,7 @@
         </is>
       </c>
       <c r="AJ11" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
@@ -1786,15 +1790,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1988-89</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1804,90 +1808,92 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>355</v>
+      </c>
+      <c r="K12" t="n">
+        <v>43</v>
+      </c>
+      <c r="L12" t="n">
+        <v>96</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="N12" t="n">
+        <v>28</v>
+      </c>
+      <c r="O12" t="n">
+        <v>66</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="Q12" t="n">
         <v>15</v>
       </c>
-      <c r="J12" t="n">
-        <v>912</v>
-      </c>
-      <c r="K12" t="n">
-        <v>105</v>
-      </c>
-      <c r="L12" t="n">
-        <v>247</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="n">
-        <v>105</v>
-      </c>
       <c r="R12" t="n">
-        <v>247</v>
+        <v>30</v>
       </c>
       <c r="S12" t="n">
-        <v>0.425</v>
+        <v>0.5</v>
       </c>
       <c r="T12" t="n">
-        <v>0.425</v>
+        <v>0.594</v>
       </c>
       <c r="U12" t="n">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="V12" t="n">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="W12" t="n">
-        <v>0.8</v>
+        <v>0.667</v>
       </c>
       <c r="X12" t="n">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="Z12" t="n">
-        <v>238</v>
+        <v>44</v>
       </c>
       <c r="AA12" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="AB12" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="AF12" t="n">
-        <v>294</v>
+        <v>120</v>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 206</t>
+          <t xml:space="preserve"> 198</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100 </t>
+          <t xml:space="preserve"> 97 </t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -1896,7 +1902,7 @@
         </is>
       </c>
       <c r="AJ12" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
@@ -1908,17 +1914,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1988-89</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>31</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
+          <t>Career</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NBA</t>
@@ -1926,90 +1926,92 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>29</v>
+        <v>634</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>558</v>
       </c>
       <c r="J13" t="n">
-        <v>491</v>
+        <v>16124</v>
       </c>
       <c r="K13" t="n">
-        <v>62</v>
+        <v>2020</v>
       </c>
       <c r="L13" t="n">
-        <v>148</v>
+        <v>4754</v>
       </c>
       <c r="M13" t="n">
-        <v>0.419</v>
+        <v>0.425</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1191</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="inlineStr"/>
+        <v>2944</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.405</v>
+      </c>
       <c r="Q13" t="n">
-        <v>62</v>
+        <v>829</v>
       </c>
       <c r="R13" t="n">
-        <v>148</v>
+        <v>1810</v>
       </c>
       <c r="S13" t="n">
-        <v>0.419</v>
+        <v>0.458</v>
       </c>
       <c r="T13" t="n">
-        <v>0.419</v>
+        <v>0.55</v>
       </c>
       <c r="U13" t="n">
-        <v>48</v>
+        <v>465</v>
       </c>
       <c r="V13" t="n">
-        <v>71</v>
+        <v>571</v>
       </c>
       <c r="W13" t="n">
-        <v>0.6759999999999999</v>
+        <v>0.8140000000000001</v>
       </c>
       <c r="X13" t="n">
-        <v>48</v>
+        <v>370</v>
       </c>
       <c r="Y13" t="n">
-        <v>116</v>
+        <v>1843</v>
       </c>
       <c r="Z13" t="n">
-        <v>164</v>
+        <v>2213</v>
       </c>
       <c r="AA13" t="n">
-        <v>41</v>
+        <v>1016</v>
       </c>
       <c r="AB13" t="n">
-        <v>17</v>
+        <v>628</v>
       </c>
       <c r="AC13" t="n">
-        <v>28</v>
+        <v>513</v>
       </c>
       <c r="AD13" t="n">
-        <v>36</v>
+        <v>655</v>
       </c>
       <c r="AE13" t="n">
-        <v>78</v>
+        <v>1108</v>
       </c>
       <c r="AF13" t="n">
-        <v>172</v>
+        <v>5696</v>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 206</t>
+          <t xml:space="preserve"> 198</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100 </t>
+          <t xml:space="preserve"> 97 </t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
@@ -2018,371 +2020,7 @@
         </is>
       </c>
       <c r="AJ13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1989-90</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>32</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>37</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>205</v>
-      </c>
-      <c r="K14" t="n">
-        <v>22</v>
-      </c>
-      <c r="L14" t="n">
-        <v>52</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="n">
-        <v>22</v>
-      </c>
-      <c r="R14" t="n">
-        <v>52</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="U14" t="n">
-        <v>16</v>
-      </c>
-      <c r="V14" t="n">
-        <v>29</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0.552</v>
-      </c>
-      <c r="X14" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>78</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 206</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 100 </t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1990-91</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>33</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>63</v>
-      </c>
-      <c r="I15" t="n">
-        <v>11</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1018</v>
-      </c>
-      <c r="K15" t="n">
-        <v>85</v>
-      </c>
-      <c r="L15" t="n">
-        <v>169</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.503</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>85</v>
-      </c>
-      <c r="R15" t="n">
-        <v>167</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.509</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.503</v>
-      </c>
-      <c r="U15" t="n">
-        <v>69</v>
-      </c>
-      <c r="V15" t="n">
-        <v>94</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0.7340000000000001</v>
-      </c>
-      <c r="X15" t="n">
-        <v>61</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>160</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>221</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>52</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>71</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>172</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>239</v>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 206</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 100 </t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Career</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>823</v>
-      </c>
-      <c r="I16" t="n">
-        <v>418</v>
-      </c>
-      <c r="J16" t="n">
-        <v>23370</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3251</v>
-      </c>
-      <c r="L16" t="n">
-        <v>6812</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.477</v>
-      </c>
-      <c r="N16" t="n">
-        <v>4</v>
-      </c>
-      <c r="O16" t="n">
-        <v>29</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.138</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3247</v>
-      </c>
-      <c r="R16" t="n">
-        <v>6783</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.478</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1922</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2514</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0.765</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1921</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>4616</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>6537</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1614</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>583</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>736</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>1474</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>2605</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>8428</v>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 206</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 100 </t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ16" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
